--- a/SHZSZHSUPPLY/VendorQualityDetection/upload/news.xlsx
+++ b/SHZSZHSUPPLY/VendorQualityDetection/upload/news.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,11 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Material</t>
     </r>
     <r>
@@ -52,6 +57,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Quantity(</t>
     </r>
     <r>
@@ -96,7 +106,7 @@
     <t>User Name</t>
   </si>
   <si>
-    <t>Text</t>
+    <t>Vendor_Code</t>
   </si>
   <si>
     <t>RIM GUARD - BANNON 24" X 20" (6716,6719)</t>
@@ -191,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="24">
@@ -223,6 +233,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -231,7 +242,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -239,13 +258,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -260,6 +301,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -267,31 +309,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,7 +334,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,15 +349,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,30 +372,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,7 +397,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,13 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,13 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +481,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,37 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,19 +523,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,31 +553,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,35 +606,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -644,7 +625,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,21 +685,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,10 +709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,130 +721,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,7 +1225,7 @@
   <dimension ref="A1:L368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75"/>
@@ -1273,9 +1283,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>44602</v>
+        <v>1120294</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -1284,7 +1294,7 @@
         <v>400</v>
       </c>
       <c r="D2" s="2">
-        <v>1008392182</v>
+        <v>10083921822</v>
       </c>
       <c r="F2" s="6">
         <v>43271</v>
@@ -1303,6 +1313,9 @@
       </c>
       <c r="K2" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="L2" s="2">
+        <v>161726</v>
       </c>
     </row>
     <row r="3" spans="1:11">
